--- a/doc/ショッピングカート詳細設計_190804.xlsx
+++ b/doc/ショッピングカート詳細設計_190804.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4956" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4956" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="2">
@@ -530,6 +530,33 @@
     <rPh sb="14" eb="16">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートをセッションに保存する</t>
+    <rPh sb="10" eb="12">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>getter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>setter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2つ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -540,7 +567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +690,14 @@
       <color theme="4"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -812,7 +847,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,6 +950,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,10 +965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3535,16 +3573,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>89535</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>287655</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>270510</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3553,7 +3591,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6170295" y="2407920"/>
+          <a:off x="4051935" y="3863340"/>
           <a:ext cx="2207895" cy="278130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3598,16 +3636,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>207644</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>35365</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>125565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>108585</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>216341</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>135090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3616,8 +3654,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5998844" y="1272540"/>
-          <a:ext cx="2314576" cy="1853565"/>
+          <a:off x="3083365" y="3272956"/>
+          <a:ext cx="2314576" cy="1831699"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4441,26 +4479,26 @@
       <c r="P9" s="14"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4639,7 +4677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4663,105 +4703,131 @@
       </c>
     </row>
     <row r="5" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O5" s="36" t="s">
+      <c r="O5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="37" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
     </row>
     <row r="7" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O8" s="36" t="s">
+      <c r="O8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="37" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="9:16" x14ac:dyDescent="0.2">
       <c r="K9" s="2"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
     </row>
     <row r="10" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O11" s="36" t="s">
+      <c r="O11" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="35" t="s">
+      <c r="P11" s="37" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
     </row>
     <row r="13" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
     </row>
     <row r="14" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O14" s="36" t="s">
+      <c r="O14" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="35" t="s">
+      <c r="P14" s="37" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
     </row>
     <row r="16" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="O17" s="36" t="s">
+      <c r="O17" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="35" t="s">
+      <c r="P17" s="37" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="O20" s="36" t="s">
+      <c r="O20" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="35" t="s">
+      <c r="P20" s="37" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="O24" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="J25" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
@@ -4795,7 +4861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Z20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4838,42 +4904,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:K18"/>
+  <dimension ref="D7:V18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:22" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:22" x14ac:dyDescent="0.2">
       <c r="K8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:22" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:22" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:22" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:22" x14ac:dyDescent="0.2">
       <c r="K16" s="33" t="s">
         <v>44</v>
+      </c>
+      <c r="V16" s="39" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.2">
@@ -4893,7 +4962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4901,60 +4972,60 @@
   </cols>
   <sheetData>
     <row r="7" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K9" s="38" t="s">
+      <c r="K9" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K10" s="38"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K12" s="38"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="35" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K14" s="38"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="35" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K16" s="38"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K17" s="38"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K19" s="38"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="35" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D21" s="37"/>
+      <c r="D21" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
